--- a/income_data.xlsx
+++ b/income_data.xlsx
@@ -1488,67 +1488,67 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3191691</t>
+          <t>1081143</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>136195</t>
+          <t>51181</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>127201</t>
+          <t>43707</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>178634</t>
+          <t>50616</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>141892</t>
+          <t>48550</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>129965</t>
+          <t>53222</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>238928</t>
+          <t>90605</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>318586</t>
+          <t>115925</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>451021</t>
+          <t>165058</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>356007</t>
+          <t>124195</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>471880</t>
+          <t>155086</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>641382</t>
+          <t>182998</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>67046</t>
+          <t>62097</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -2538,67 +2538,67 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3191691</t>
+          <t>874827</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>136195</t>
+          <t>36951</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>127201</t>
+          <t>29965</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>178634</t>
+          <t>39538</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>141892</t>
+          <t>45746</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>129965</t>
+          <t>45851</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>238928</t>
+          <t>92584</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>318586</t>
+          <t>118793</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>451021</t>
+          <t>148096</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>356007</t>
+          <t>94215</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>471880</t>
+          <t>102278</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>641382</t>
+          <t>120810</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>67046</t>
+          <t>53600</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -3588,67 +3588,67 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3191691</t>
+          <t>1402522</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>136195</t>
+          <t>54293</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>127201</t>
+          <t>37573</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>178634</t>
+          <t>76485</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>141892</t>
+          <t>58655</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>129965</t>
+          <t>62295</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>238928</t>
+          <t>113932</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>318586</t>
+          <t>156378</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>451021</t>
+          <t>216417</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>356007</t>
+          <t>160300</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>471880</t>
+          <t>209578</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>641382</t>
+          <t>256616</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>67046</t>
+          <t>65290</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -5688,67 +5688,67 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3191691</t>
+          <t>580835</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>136195</t>
+          <t>17651</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>127201</t>
+          <t>14221</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>178634</t>
+          <t>21425</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>141892</t>
+          <t>21477</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>129965</t>
+          <t>26868</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>238928</t>
+          <t>54126</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>318586</t>
+          <t>82280</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>451021</t>
+          <t>110100</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>356007</t>
+          <t>75408</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>471880</t>
+          <t>82169</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>641382</t>
+          <t>75110</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>67046</t>
+          <t>60914</t>
         </is>
       </c>
       <c r="N71" t="n">
